--- a/data/trans_orig/iP30B6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{865BF50F-DC89-4D8E-9DA9-BC200A78F2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EA57BD-5E15-4074-B646-51A247C40F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B0623D36-0EAE-4123-ACCE-96275C48C2A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97BA6594-88B1-4F3B-9C8E-ED85CEE0978D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,55 +101,55 @@
     <t>28,26%</t>
   </si>
   <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>26,33%</t>
   </si>
   <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>71,74%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>75,81%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>73,67%</t>
   </si>
   <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,160 +158,160 @@
     <t>17,48%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>82,52%</t>
   </si>
   <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
   </si>
   <si>
     <t>16,81%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>83,19%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>78,67%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484F0919-8D4E-4484-8EAA-82D51B0B8F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF56BB8-C20B-44EB-ADE4-E2AF76AA43D9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1047,7 +1047,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="7">
-        <v>39827</v>
+        <v>39826</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -1098,7 +1098,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>

--- a/data/trans_orig/iP30B6_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP30B6_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EA57BD-5E15-4074-B646-51A247C40F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{977AFD44-92F3-4C83-BDB1-D24A09716FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97BA6594-88B1-4F3B-9C8E-ED85CEE0978D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EC97BA47-8D46-47ED-88F8-0680A78D90D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Menores según si desayunan bollería industrial en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,232 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>20,72%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
   </si>
   <si>
     <t>79,28%</t>
   </si>
   <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
+    <t>84,64%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +705,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF56BB8-C20B-44EB-ADE4-E2AF76AA43D9}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D9488-27E9-4142-A54D-FD94D5BE7DE7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +823,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10838</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>16717</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>27555</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="D5" s="7">
+        <v>42861</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>41628</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>84488</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +925,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="D7" s="7">
-        <v>15687</v>
+        <v>80872</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="I7" s="7">
-        <v>12133</v>
+        <v>91195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="N7" s="7">
-        <v>27820</v>
+        <v>172067</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>57</v>
+        <v>512</v>
       </c>
       <c r="D8" s="7">
-        <v>39826</v>
+        <v>370960</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>53</v>
+        <v>523</v>
       </c>
       <c r="I8" s="7">
-        <v>38021</v>
+        <v>414055</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>110</v>
+        <v>1035</v>
       </c>
       <c r="N8" s="7">
-        <v>77847</v>
+        <v>785015</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1080,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>84125</v>
+        <v>21053</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
         <v>40</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="7">
-        <v>113</v>
-      </c>
       <c r="I10" s="7">
-        <v>82214</v>
+        <v>33298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>220</v>
+        <v>69</v>
       </c>
       <c r="N10" s="7">
-        <v>166339</v>
+        <v>54351</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>523</v>
+        <v>193</v>
       </c>
       <c r="D11" s="7">
-        <v>397201</v>
+        <v>125133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>512</v>
+        <v>193</v>
       </c>
       <c r="I11" s="7">
-        <v>359040</v>
+        <v>147841</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
-        <v>1035</v>
+        <v>386</v>
       </c>
       <c r="N11" s="7">
-        <v>756241</v>
+        <v>272973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1235,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="D13" s="7">
-        <v>32129</v>
+        <v>112763</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="I13" s="7">
-        <v>21736</v>
+        <v>141210</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>323</v>
       </c>
       <c r="N13" s="7">
-        <v>53865</v>
+        <v>253973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>193</v>
+        <v>758</v>
       </c>
       <c r="D14" s="7">
-        <v>140365</v>
+        <v>538954</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>193</v>
+        <v>773</v>
       </c>
       <c r="I14" s="7">
-        <v>126294</v>
+        <v>603523</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>386</v>
+        <v>1531</v>
       </c>
       <c r="N14" s="7">
-        <v>266659</v>
+        <v>1142477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1390,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>167</v>
-      </c>
-      <c r="D16" s="7">
-        <v>131942</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="7">
-        <v>157</v>
-      </c>
-      <c r="I16" s="7">
-        <v>117254</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" s="7">
-        <v>324</v>
-      </c>
-      <c r="N16" s="7">
-        <v>249196</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>773</v>
-      </c>
-      <c r="D17" s="7">
-        <v>577391</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="7">
-        <v>758</v>
-      </c>
-      <c r="I17" s="7">
-        <v>523355</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1531</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1100746</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
